--- a/Team-Data/2012-13/12-23-2012-13.xlsx
+++ b/Team-Data/2012-13/12-23-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -759,7 +826,7 @@
         <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -789,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -926,13 +993,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF3" t="n">
         <v>16</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>15</v>
       </c>
       <c r="AG3" t="n">
         <v>17</v>
@@ -956,7 +1023,7 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -965,7 +1032,7 @@
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
@@ -977,10 +1044,10 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
         <v>5</v>
@@ -989,7 +1056,7 @@
         <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -998,7 +1065,7 @@
         <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC3" t="n">
         <v>17</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538</v>
+        <v>0.52</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K4" t="n">
         <v>0.441</v>
@@ -1057,73 +1124,73 @@
         <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="N4" t="n">
         <v>0.349</v>
       </c>
       <c r="O4" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P4" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R4" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S4" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T4" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U4" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB4" t="n">
         <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ4" t="n">
         <v>25</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
@@ -1147,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1162,7 +1229,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1174,7 +1241,7 @@
         <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA4" t="n">
         <v>5</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1308,19 +1375,19 @@
         <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
         <v>28</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
         <v>18</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>4</v>
@@ -1329,22 +1396,22 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
       </c>
       <c r="AS5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
       </c>
       <c r="AV5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1514,19 +1581,19 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS6" t="n">
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -1684,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1693,7 +1760,7 @@
         <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1729,7 +1796,7 @@
         <v>23</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
         <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.429</v>
+        <v>0.444</v>
       </c>
       <c r="H8" t="n">
         <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="J8" t="n">
-        <v>82.40000000000001</v>
+        <v>82.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.451</v>
@@ -1785,7 +1852,7 @@
         <v>7.1</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5</v>
+        <v>19.7</v>
       </c>
       <c r="N8" t="n">
         <v>0.363</v>
@@ -1794,10 +1861,10 @@
         <v>17.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.783</v>
+        <v>0.791</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
@@ -1806,37 +1873,37 @@
         <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
         <v>21.9</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="W8" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="Y8" t="n">
         <v>4.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>99</v>
+        <v>99.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>-3.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1851,19 +1918,19 @@
         <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
         <v>10</v>
@@ -1872,10 +1939,10 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,16 +1954,16 @@
         <v>22</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1911,7 +1978,7 @@
         <v>10</v>
       </c>
       <c r="BC8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2051,7 +2118,7 @@
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2069,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2218,13 +2285,13 @@
         <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM10" t="n">
         <v>27</v>
@@ -2245,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT10" t="n">
         <v>14</v>
@@ -2260,10 +2327,10 @@
         <v>30</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2415,13 +2482,13 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
       </c>
       <c r="AQ11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR11" t="n">
         <v>11</v>
@@ -2442,7 +2509,7 @@
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
         <v>10</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2585,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2606,7 +2673,7 @@
         <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS12" t="n">
         <v>7</v>
@@ -2615,13 +2682,13 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>26</v>
@@ -2633,7 +2700,7 @@
         <v>9</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2746,37 +2813,37 @@
         <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO13" t="n">
         <v>21</v>
@@ -2785,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.778</v>
+        <v>0.769</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,40 +2935,40 @@
         <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>80.40000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="M14" t="n">
         <v>19.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.347</v>
+        <v>0.34</v>
       </c>
       <c r="O14" t="n">
         <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.737</v>
       </c>
       <c r="R14" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.6</v>
+        <v>30.2</v>
       </c>
       <c r="T14" t="n">
         <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="V14" t="n">
         <v>14.6</v>
@@ -2913,25 +2980,25 @@
         <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA14" t="n">
         <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.2</v>
+        <v>101.1</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2940,49 +3007,49 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO14" t="n">
         <v>13</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ14" t="n">
         <v>23</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -3110,10 +3177,10 @@
         <v>2.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>18</v>
@@ -3122,13 +3189,13 @@
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI15" t="n">
         <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3167,22 +3234,22 @@
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>5.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3301,7 +3368,7 @@
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -3337,7 +3404,7 @@
         <v>5</v>
       </c>
       <c r="AS16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
         <v>10</v>
@@ -3352,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3361,7 +3428,7 @@
         <v>19</v>
       </c>
       <c r="BA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3498,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM17" t="n">
         <v>10</v>
@@ -3507,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP17" t="n">
         <v>15</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>14</v>
       </c>
       <c r="AQ17" t="n">
         <v>15</v>
@@ -3531,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3549,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
@@ -3680,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
         <v>25</v>
@@ -3695,7 +3762,7 @@
         <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR18" t="n">
         <v>7</v>
@@ -3707,7 +3774,7 @@
         <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" t="n">
         <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.52</v>
+        <v>0.542</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.302</v>
+        <v>0.301</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P19" t="n">
-        <v>25.8</v>
+        <v>26.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.729</v>
+        <v>0.725</v>
       </c>
       <c r="R19" t="n">
         <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T19" t="n">
         <v>45.6</v>
       </c>
       <c r="U19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="V19" t="n">
         <v>15.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3859,10 +3926,10 @@
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
         <v>15</v>
@@ -3877,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3889,28 +3956,28 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV19" t="n">
         <v>27</v>
       </c>
       <c r="AW19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
         <v>15</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4050,7 +4117,7 @@
         <v>19</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4059,13 +4126,13 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR20" t="n">
         <v>21</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>25</v>
@@ -4080,7 +4147,7 @@
         <v>27</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4089,7 +4156,7 @@
         <v>18</v>
       </c>
       <c r="BA20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB20" t="n">
         <v>29</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="n">
         <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.741</v>
+        <v>0.731</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>83.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
         <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="M21" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P21" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="R21" t="n">
-        <v>10.1</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="W21" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X21" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z21" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.6</v>
+        <v>102.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4214,16 +4281,16 @@
         <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,25 +4302,25 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS21" t="n">
         <v>25</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,22 +4329,22 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB21" t="n">
         <v>5</v>
       </c>
-      <c r="BA21" t="n">
-        <v>18</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>6</v>
-      </c>
       <c r="BC21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4399,7 +4466,7 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4435,13 +4502,13 @@
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AW22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0.444</v>
+        <v>0.462</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.452</v>
+        <v>0.45</v>
       </c>
       <c r="L23" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.34</v>
+        <v>0.335</v>
       </c>
       <c r="O23" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="P23" t="n">
         <v>16.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.787</v>
+        <v>0.795</v>
       </c>
       <c r="R23" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S23" t="n">
         <v>33.4</v>
       </c>
       <c r="T23" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U23" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V23" t="n">
-        <v>15.6</v>
+        <v>15.4</v>
       </c>
       <c r="W23" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X23" t="n">
         <v>4.6</v>
@@ -4554,7 +4621,7 @@
         <v>4.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA23" t="n">
         <v>16.9</v>
@@ -4563,40 +4630,40 @@
         <v>92.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.6</v>
+        <v>-1.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4605,10 +4672,10 @@
         <v>30</v>
       </c>
       <c r="AQ23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>3</v>
@@ -4617,10 +4684,10 @@
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" t="n">
         <v>13</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.464</v>
+        <v>0.481</v>
       </c>
       <c r="H24" t="n">
         <v>48.4</v>
@@ -4688,7 +4755,7 @@
         <v>36.8</v>
       </c>
       <c r="J24" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.437</v>
@@ -4700,46 +4767,46 @@
         <v>18.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.358</v>
       </c>
       <c r="O24" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="P24" t="n">
-        <v>18</v>
+        <v>18.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.732</v>
+        <v>0.73</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S24" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V24" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W24" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="AB24" t="n">
         <v>93.40000000000001</v>
@@ -4748,31 +4815,31 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
       </c>
       <c r="AL24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
@@ -4787,34 +4854,34 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT24" t="n">
         <v>20</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY24" t="n">
         <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4823,7 +4890,7 @@
         <v>25</v>
       </c>
       <c r="BC24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -4852,70 +4919,70 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>0.393</v>
+        <v>0.407</v>
       </c>
       <c r="H25" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="J25" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="K25" t="n">
-        <v>0.447</v>
+        <v>0.45</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.347</v>
+        <v>0.353</v>
       </c>
       <c r="O25" t="n">
         <v>14.6</v>
       </c>
       <c r="P25" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.75</v>
+        <v>0.753</v>
       </c>
       <c r="R25" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>28.3</v>
       </c>
       <c r="T25" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V25" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W25" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z25" t="n">
         <v>20.5</v>
@@ -4924,13 +4991,13 @@
         <v>18.7</v>
       </c>
       <c r="AB25" t="n">
-        <v>97.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>-3.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4951,16 +5018,16 @@
         <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AO25" t="n">
         <v>26</v>
@@ -4981,19 +5048,19 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
       </c>
       <c r="AW25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX25" t="n">
         <v>8</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ25" t="n">
         <v>20</v>
@@ -5005,7 +5072,7 @@
         <v>12</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E26" t="n">
         <v>13</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H26" t="n">
         <v>49</v>
@@ -5052,7 +5119,7 @@
         <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K26" t="n">
         <v>0.434</v>
@@ -5064,43 +5131,43 @@
         <v>23.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.344</v>
+        <v>0.346</v>
       </c>
       <c r="O26" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.769</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T26" t="n">
         <v>40.8</v>
       </c>
       <c r="U26" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W26" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26" t="n">
         <v>5.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
         <v>19.5</v>
@@ -5109,31 +5176,31 @@
         <v>97.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.5</v>
+        <v>-2.2</v>
       </c>
       <c r="AD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI26" t="n">
         <v>19</v>
       </c>
-      <c r="AE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>20</v>
-      </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>18</v>
@@ -5154,7 +5221,7 @@
         <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
         <v>28</v>
@@ -5163,28 +5230,28 @@
         <v>24</v>
       </c>
       <c r="AU26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV26" t="n">
         <v>15</v>
       </c>
       <c r="AW26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -5216,127 +5283,127 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
         <v>18</v>
       </c>
       <c r="G27" t="n">
-        <v>0.333</v>
+        <v>0.308</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.436</v>
+        <v>0.431</v>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M27" t="n">
         <v>18.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>17.3</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R27" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S27" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T27" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.7</v>
+        <v>-6.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="n">
         <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ27" t="n">
         <v>12</v>
       </c>
       <c r="AR27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS27" t="n">
         <v>26</v>
@@ -5351,7 +5418,7 @@
         <v>14</v>
       </c>
       <c r="AW27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,10 +5433,10 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -5398,124 +5465,124 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" t="n">
         <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.724</v>
+        <v>0.714</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.48</v>
+        <v>0.478</v>
       </c>
       <c r="L28" t="n">
-        <v>8.9</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="N28" t="n">
-        <v>0.387</v>
+        <v>0.374</v>
       </c>
       <c r="O28" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P28" t="n">
         <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
         <v>42.3</v>
       </c>
       <c r="U28" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="V28" t="n">
         <v>15.3</v>
       </c>
       <c r="W28" t="n">
-        <v>8.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>105</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE28" t="n">
         <v>2</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
       </c>
       <c r="AN28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
@@ -5530,16 +5597,16 @@
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5667,16 +5734,16 @@
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK29" t="n">
         <v>25</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO29" t="n">
         <v>8</v>
@@ -5697,7 +5764,7 @@
         <v>11</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5792,7 +5859,7 @@
         <v>17.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O30" t="n">
         <v>18.6</v>
@@ -5801,61 +5868,61 @@
         <v>24.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.763</v>
+        <v>0.765</v>
       </c>
       <c r="R30" t="n">
         <v>13.4</v>
       </c>
       <c r="S30" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="T30" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="U30" t="n">
         <v>22.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>8</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB30" t="n">
         <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI30" t="n">
         <v>13</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
@@ -5870,7 +5937,7 @@
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5885,19 +5952,19 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV30" t="n">
         <v>16</v>
       </c>
       <c r="AW30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX30" t="n">
         <v>6</v>
@@ -5909,7 +5976,7 @@
         <v>27</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6040,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-23-2012-13</t>
+          <t>2012-12-23</t>
         </is>
       </c>
     </row>
